--- a/Data/room.xlsx
+++ b/Data/room.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\time_table\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\t\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A7054E-0A06-414A-A6A5-7E9BB56E2948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC9E72D-6164-4B02-9549-3198AE11588A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="810" windowWidth="14400" windowHeight="7270" xr2:uid="{9D1FFBA7-4360-44E8-9344-49FE9D456A29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D1FFBA7-4360-44E8-9344-49FE9D456A29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA42A1E8-83C3-4585-B9EF-0CAF6D6403D0}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,6 +427,26 @@
         <v>202</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/room.xlsx
+++ b/Data/room.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\t\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\time_table\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC9E72D-6164-4B02-9549-3198AE11588A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD3EC75-69EB-41E5-9B45-2BA9108FD9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D1FFBA7-4360-44E8-9344-49FE9D456A29}"/>
   </bookViews>
@@ -35,9 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Room No</t>
+  </si>
+  <si>
+    <t>&lt;- Don’t disturb the layout</t>
   </si>
 </sst>
 </file>
@@ -389,60 +392,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA42A1E8-83C3-4585-B9EF-0CAF6D6403D0}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>103</v>
       </c>
